--- a/results/ScenarioComparison/ValuesHydro.xlsx
+++ b/results/ScenarioComparison/ValuesHydro.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HydroNumber" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="HydroList" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TotalWaterConsumption" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TotalGeneration" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MaxGeneration" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MaxCapacity" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +23,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +51,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +441,1200 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Total planned plants</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Total built plants</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total built plants ET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total built plants SD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total built plants SS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total planned plants</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Total built plants</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total built plants ET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Total built plants SD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total built plants SS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HYDBRS03</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Baro</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HYDBBS03</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Birbir</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HYDCYS03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chemoga Yeda</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HYDGJS03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Genji</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HYDKRS03</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Karadobi</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HYDLDS03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lower Dabus</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HYDLSS03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lower Dedessa</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HYDTMS03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tams</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HYDT2S03</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tekeze 2</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HYDUMS03</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Upper Mandaya</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HYDDGS03</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dagash</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HYDDLS03</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dal</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HYDKBS03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kajbar</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HYDMGS03</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mograt</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HYDSBS03</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sabaloka</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HYDSHS03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Shereik</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HYDBDS03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bedden</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HYDLKS03</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lakki</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HYDBRS03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Baro</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HYDBBS03</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Birbir</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HYDCYS03</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chemoga Yeda</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HYDGJS03</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Genji</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HYDKRS03</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Karadobi</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HYDLSS03</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Lower Dedessa</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HYDTMS03</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Tams</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HYDT2S03</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tekeze 2</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HYDDGS03</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dagash</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HYDDLS03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Dal</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HYDKBS03</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Kajbar</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HYDMGS03</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mograt</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HYDSBS03</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sabaloka</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HYDSHS03</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Shereik</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HYDBDS03</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bedden</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HYDLKS03</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lakki</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1146515.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1140286.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17196.085</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3753.9297</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7671.9992</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4871.3656</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>898.7905</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16763.5378</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3753.9297</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7234.327600000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4878.7977</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>896.4827999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>385.6383</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>67.08540000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>197.7852</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>103.5976</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>23.9865</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>371.3477999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>67.08540000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>183.8046</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>103.5976</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>23.9865</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2045</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25.28174</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.83174</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17.634</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.141999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>23.33174</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.83174</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15.684</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.141999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2039</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>